--- a/ReviewFiles/Plants_Reformat_Logic.xlsx
+++ b/ReviewFiles/Plants_Reformat_Logic.xlsx
@@ -8,28 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james.gliem\Documents\GitHub\Plants\ReviewFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079E69DF-3845-4F13-8E83-13C652A89312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38CEEC3-947C-4591-AE9E-78E07FE4F21A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="331" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Other Links AddSub" sheetId="3" r:id="rId2"/>
+    <sheet name="Other Links" sheetId="3" r:id="rId2"/>
     <sheet name="RAW CSV Export" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Other Links AddSub'!$A$1:$M$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Plant Data'!$A$1:$AG$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'RAW CSV Export'!$A$1:$AD$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Plant Data'!$C:$C,'Plant Data'!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'RAW CSV Export'!$C:$C,'RAW CSV Export'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Other Links'!$A$1:$T$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Plant Data'!$A$1:$AH$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'RAW CSV Export'!$A$1:$AD$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="173">
   <si>
     <t>Plant Type</t>
   </si>
@@ -271,7 +269,202 @@
     <t>https://www.pinelandsnursery.com/amsonia-hubrichtii</t>
   </si>
   <si>
-    <t>[T1,"https://Test.com","Test 1"];[T2,"https://Test.com","Test 2"];[T3,"https://Test.com","Test 3"]</t>
+    <t>20250611_AN</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Amsonia tabernaemontana</t>
+  </si>
+  <si>
+    <t>BLUE STAR, BLUE DOGBANE</t>
+  </si>
+  <si>
+    <t>FACW</t>
+  </si>
+  <si>
+    <t>Zone 3 to 9</t>
+  </si>
+  <si>
+    <t>Deer, Drought, Clay Soil</t>
+  </si>
+  <si>
+    <t>Wet to moist, sandy soils.</t>
+  </si>
+  <si>
+    <t>This species should be cut back after flowering. Blue star has naturalized northeast as far as Massachusetts. A similar species, A. illustris, occurs inland from MO &amp; KS to TX.</t>
+  </si>
+  <si>
+    <t>Wet, sandy sites in thin woods &amp; on plains.</t>
+  </si>
+  <si>
+    <t>Easily grown in average, medium, well-drained soil in full sun to part shade. Prefers moist, loamy soils. Tolerates some drought. When grown in full sun, plants often require no pruning or staking. When grown in some shade and/or in rich soils, however, plants tend to become more open and floppy and often require staking or pruning. For a neater appearance, particularly for shade-grown plants, consider cutting back stems by 1/2 to 1/3 after flowering to promote bushy growth and, if desired, a more rounded foliage mound.</t>
+  </si>
+  <si>
+    <t>No serious insect or disease problems. May require staking to avoid flopping in overly rich soils or shady conditions. Rust may occur. Deer tend to avoid this plant.</t>
+  </si>
+  <si>
+    <t>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?taxonid=276088&amp;isprofile=1&amp;gen=Amsonia</t>
+  </si>
+  <si>
+    <t>https://www.wildflower.org/plants/result.php?id_plant=amta2</t>
+  </si>
+  <si>
+    <t>https://newmoonnursery.com/nursery-plants/amsonia-tabernaemontana/</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Amsonia tabernaemontana 'Montana'</t>
+  </si>
+  <si>
+    <t>BLUE STAR</t>
+  </si>
+  <si>
+    <t>1 - 1.5</t>
+  </si>
+  <si>
+    <t>0.75 - 1</t>
+  </si>
+  <si>
+    <t>Zone 4 to 9</t>
+  </si>
+  <si>
+    <t>Easily grown in average, medium, well-drained soil in full sun to part shade. Prefers moist, loamy soils. Tolerates some drought. When grown in full sun, plants often require no pruning or staking. When grown in some shade and/or in rich soils, however, plants tend to become more open and floppy and often require staking or pruning. For a neater appearance, particularly for shade-grown plants, consider cutting back stems by 1/2 to 1/3 after flowering to promote bushy growth and, if desired, a more rounded foliage mound. Although cutting back most Amsonias to 6-8" after bloom is recommended in order to help maintain neatness and increase foliage density, such trimming is usually not needed in the case of this compact cultivar.</t>
+  </si>
+  <si>
+    <t>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?taxonid=262985&amp;isprofile=0&amp;</t>
+  </si>
+  <si>
+    <t>https://newmoonnursery.com/nursery-plants/amsonia-tabernaemontana-v-montana/</t>
+  </si>
+  <si>
+    <t>ATS</t>
+  </si>
+  <si>
+    <t>Amsonia tabernaemontana 'Salicifolia'</t>
+  </si>
+  <si>
+    <t>WILLOW LEAF BLUE STAR</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Easily grown in average, medium, well-drained soil in full sun to part shade. Prefers moist, loamy soils. Tolerates some drought. When grown in full sun, plants often require no pruning or staking though they tend to lean. When grown in some shade and/or in rich soils, however, plants tend to become more open and floppy and often require staking or pruning. For a neater appearance, particularly for shade-grown plants, consider cutting back stems by 1/2 to 1/3 after flowering to promote bushy growth and, if desired, a more rounded foliage mound.</t>
+  </si>
+  <si>
+    <t>No serious insect or disease problems. Taller plants may require staking, particularly if grown in shade and not pruned after flowering. Deer tend to avoid this plant.</t>
+  </si>
+  <si>
+    <t>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?taxonid=276139&amp;isprofile=0&amp;hf=1</t>
+  </si>
+  <si>
+    <t>https://www.wildflower.org/plants/result.php?id_plant=AMTAS</t>
+  </si>
+  <si>
+    <t>https://www.pleasantrunnursery.com/plant-name/Amsonia-tabernaemontana-var--salicifolia</t>
+  </si>
+  <si>
+    <t>https://newmoonnursery.com/nursery-plants/amsonia-tabernaemontana-v-salicifolia/</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>Aquilegia canadensis</t>
+  </si>
+  <si>
+    <t>RED COLUMBINE</t>
+  </si>
+  <si>
+    <t>Red, Pink, Yellow</t>
+  </si>
+  <si>
+    <t>Feb, Mar, Apr, May, Jun, Jul</t>
+  </si>
+  <si>
+    <t>FACU</t>
+  </si>
+  <si>
+    <t>Zone 3 to 8</t>
+  </si>
+  <si>
+    <t>Hummingbirds</t>
+  </si>
+  <si>
+    <t>Rabbit, Deer, Drought, Dry Soil</t>
+  </si>
+  <si>
+    <t>Sandy, well-drained soils. Medium Loam, Sandy Loam, Sandy, Limestone-based. Not too rich.</t>
+  </si>
+  <si>
+    <t>Red columbine likes moisture but must be in well drained soil. Rich garden soil encourages rank vegetative growth and weak stems and shortens the plant's lifespan, while plants in thin, sandy soils maintain a tight, compact habit and can live for many years. It is</t>
+  </si>
+  <si>
+    <t>Partly shaded to shaded woodland habitat with calcareous soils that are not too rich. Central Texas populations primarily in solution-pitted limestone areas in shade.</t>
+  </si>
+  <si>
+    <t>Easily grown in average, medium, well-drained soil in full sun to part shade. Wide range of soil tolerance as long as drainage is good. Prefers rich, moist soils in light to moderate shade. Freely self-seeds and will naturalize to form large colonies in optimum growing conditions. Remove flowering stems after bloom to encourage additional bloom. Keep soils uniformly moist after bloom to prolong attractive foliage appearance. When foliage depreciates, plants may be cut to the ground.</t>
+  </si>
+  <si>
+    <t>Borders, cottage gardens, open shade gardens, woodland gardens or naturalized areas. Also a good selection for a hummingbird garden. Continue to water plants after bloom to enjoy the ground cover effect of the attractive foliage.</t>
+  </si>
+  <si>
+    <t>Use Ornamental: Valued as a shade-loving, Use Wildlife: Blooms attract hummingbirds, bees, butterflies, and hawk moths. Seeds consumed by finches and buntings., Use Other: Native</t>
+  </si>
+  <si>
+    <t>Maintenance: Be careful of overwatering in summer - the crowns can rot. Cut back old seed heads and stems in summer to keep tidy looking. To maintain pure strains of any Aquilegia species and prevent hybridizing (which A. canadensis will readily do), keep different species widely separated - not a surefire protection, but reduces the likelihood.</t>
+  </si>
+  <si>
+    <t>This species has very good resistance to leaf miner which often causes severe damage to the foliage of many other columbine species and hybrids.</t>
+  </si>
+  <si>
+    <t>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?kempercode=b400</t>
+  </si>
+  <si>
+    <t>https://www.wildflower.org/plants/result.php?id_plant=aqca</t>
+  </si>
+  <si>
+    <t>https://www.pleasantrunnursery.com/plant-name/Aquilegia-canadensis</t>
+  </si>
+  <si>
+    <t>https://newmoonnursery.com/nursery-plants/aquilegia-canadensis/</t>
+  </si>
+  <si>
+    <t>https://www.pinelandsnursery.com/aquilegia-canadensis-red-columbine-seed</t>
+  </si>
+  <si>
+    <t>Label 1</t>
+  </si>
+  <si>
+    <t>URL 1</t>
+  </si>
+  <si>
+    <t>Tag 1</t>
+  </si>
+  <si>
+    <t>Label 2</t>
+  </si>
+  <si>
+    <t>URL 2</t>
+  </si>
+  <si>
+    <t>Tag 2</t>
+  </si>
+  <si>
+    <t>Label 3</t>
+  </si>
+  <si>
+    <t>URL 3</t>
+  </si>
+  <si>
+    <t>Tag 3</t>
+  </si>
+  <si>
+    <t>Amsonia Hubrichtii</t>
   </si>
   <si>
     <t>Test 1</t>
@@ -295,7 +488,16 @@
     <t>T3</t>
   </si>
   <si>
-    <t>Formula I Think</t>
+    <t>Amsonia Tabernaemontana</t>
+  </si>
+  <si>
+    <t>Amsonia Tabernaemontana 'montana'</t>
+  </si>
+  <si>
+    <t>Amsonia Tabernaemontana 'salicifolia'</t>
+  </si>
+  <si>
+    <t>Aquilegia Canadensis</t>
   </si>
   <si>
     <t>Link 1</t>
@@ -307,42 +509,56 @@
     <t>Link 3</t>
   </si>
   <si>
-    <t>[E2,"D2","C2"];[H2,"G2","F2"];[K2,"J2","I2"]</t>
-  </si>
-  <si>
-    <t>other links addsub Links -- Select and Fill : MUST EDIT ON AddSub Sheet</t>
-  </si>
-  <si>
-    <t>RAW CSV Export Data  Model</t>
-  </si>
-  <si>
-    <t>Formula to get it?</t>
+    <t>Link 4</t>
+  </si>
+  <si>
+    <t>Label 4</t>
+  </si>
+  <si>
+    <t>URL 4</t>
+  </si>
+  <si>
+    <t>Tag 4</t>
+  </si>
+  <si>
+    <t>CSV RAW OUTPUT</t>
+  </si>
+  <si>
+    <t>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""];[T3,""https://Test.com"",""Test 3""]</t>
+  </si>
+  <si>
+    <t>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""]</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Edit on `Other Links` - Link #</t>
+  </si>
+  <si>
+    <t>Tag # - Populate based on link#</t>
+  </si>
+  <si>
+    <t>Label # - Populate based on link#</t>
+  </si>
+  <si>
+    <t>URL # - Populate based on link#</t>
+  </si>
+  <si>
+    <t>If link 1 is selected populate the link 1 group, if link 2 use Link 2 for the plant. AE should be a List of Links for that plant, refed on 'Other Links'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <i/>
@@ -360,7 +576,19 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -368,13 +596,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +643,33 @@
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor rgb="FFF9F9F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF79A"/>
+        <bgColor rgb="FFFFF79A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -431,99 +696,132 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,21 +1121,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -852,14 +1150,14 @@
     <col min="20" max="21" width="20" customWidth="1"/>
     <col min="22" max="22" width="22" customWidth="1"/>
     <col min="23" max="23" width="25" customWidth="1"/>
-    <col min="24" max="29" width="27" customWidth="1"/>
-    <col min="30" max="31" width="33.21875" customWidth="1"/>
-    <col min="32" max="32" width="15" customWidth="1"/>
-    <col min="33" max="33" width="8" customWidth="1"/>
-    <col min="34" max="42" width="18" customWidth="1"/>
+    <col min="24" max="27" width="27" customWidth="1"/>
+    <col min="28" max="28" width="22.109375" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="31" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,19 +1242,20 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1041,19 +1340,26 @@
       <c r="AB2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
+      <c r="AC2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="AF2" s="2" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>54</v>
+        <v>170</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1138,43 +1444,484 @@
       <c r="AB3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AC3" t="str">
-        <f>'Other Links AddSub'!C2</f>
+      <c r="AC3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="20" t="e">
+        <f>'Other Links'!C1:E1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF3" s="21" t="str">
+        <f>'Other Links'!C3</f>
         <v>Test 1</v>
       </c>
-      <c r="AD3" t="str">
-        <f>'Other Links AddSub'!E2</f>
+      <c r="AG3" s="21" t="str">
+        <f>'Other Links'!D3</f>
+        <v>https://Test.com</v>
+      </c>
+      <c r="AH3" s="21" t="str">
+        <f>'Other Links'!E3</f>
         <v>T1</v>
       </c>
-      <c r="AE3" t="str">
-        <f>'Other Links AddSub'!D2</f>
+      <c r="AI3" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="20" t="e">
+        <f>'Other Links'!C2:E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF4" s="21" t="str">
+        <f>'Other Links'!C4</f>
+        <v>Test 1</v>
+      </c>
+      <c r="AG4" s="21" t="str">
+        <f>'Other Links'!D4</f>
         <v>https://Test.com</v>
       </c>
-      <c r="AF3" s="10">
-        <v>20250613</v>
-      </c>
-      <c r="AG3" s="11"/>
+      <c r="AH4" s="21" t="str">
+        <f>'Other Links'!E4</f>
+        <v>T1</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:33" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:33" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:33" ht="28.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:35" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="20" t="e">
+        <f>'Other Links'!C3:E3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF5" s="21" t="str">
+        <f>'Other Links'!C5</f>
+        <v>Test 1</v>
+      </c>
+      <c r="AG5" s="21" t="str">
+        <f>'Other Links'!D5</f>
+        <v>https://Test.com</v>
+      </c>
+      <c r="AH5" s="21" t="str">
+        <f>'Other Links'!E5</f>
+        <v>T1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="20" t="e">
+        <f>'Other Links'!C4:E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF6" s="21" t="str">
+        <f>'Other Links'!C6</f>
+        <v>Test 1</v>
+      </c>
+      <c r="AG6" s="21" t="str">
+        <f>'Other Links'!D6</f>
+        <v>https://Test.com</v>
+      </c>
+      <c r="AH6" s="21" t="str">
+        <f>'Other Links'!E6</f>
+        <v>T1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC7" s="17" t="str">
+        <f ca="1">IF(AD7&lt;&gt;"", TEXT(TODAY(),"yyyymmdd") &amp; "_" &amp; AD7, "")</f>
+        <v/>
+      </c>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="20" t="e">
+        <f>'Other Links'!C5:E5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF7" s="21" t="str">
+        <f>'Other Links'!C7</f>
+        <v>Test 1</v>
+      </c>
+      <c r="AG7" s="21" t="str">
+        <f>'Other Links'!D7</f>
+        <v>https://Test.com</v>
+      </c>
+      <c r="AH7" s="21" t="str">
+        <f>'Other Links'!E7</f>
+        <v>T1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="AC1:AE1"/>
-    <mergeCell ref="AC2:AE2"/>
+  <mergeCells count="1">
+    <mergeCell ref="AE1:AH1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="X3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="Y3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Z3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="AB3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="X3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Y3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="Z3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="AB3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="X4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Y4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="AA4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="X5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="AA5" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="X6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="Y6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="Z6" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="AA6" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="X7" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="Y7" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="Z7" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="AA7" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="AB7" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
   </hyperlinks>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="12" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId5"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId19"/>
   <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;A</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1184,126 +1931,303 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" customWidth="1"/>
-    <col min="13" max="13" width="65.5546875" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" customWidth="1"/>
+    <col min="20" max="20" width="92.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
+      <c r="C1" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" t="s">
+        <v>152</v>
+      </c>
+      <c r="T4" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M3" t="s">
-        <v>95</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M4" t="str">
-        <f>L2</f>
-        <v>[E2,"D2","C2"];[H2,"G2","F2"];[K2,"J2","I2"]</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+      <c r="T6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <printOptions headings="1" gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="13" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="12" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;A</oddFooter>
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>'Plant Data'!$C$3:$C$7</xm:f>
+            <xm:f>'Plant Data'!$C$4:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
-            <xm:f>'Plant Data'!$D$3:$D$7</xm:f>
+            <xm:f>'Plant Data'!$D$4:$D$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
@@ -1315,19 +2239,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showFormulas="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="28" max="28" width="17.5546875" customWidth="1"/>
-    <col min="29" max="29" width="20.44140625" customWidth="1"/>
-    <col min="30" max="30" width="16.21875" customWidth="1"/>
-    <col min="31" max="31" width="19.109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1535,20 +2453,508 @@
         <v>https://www.pinelandsnursery.com/amsonia-hubrichtii</v>
       </c>
       <c r="AC2" t="str">
-        <f>'Other Links AddSub'!L2</f>
-        <v>[E2,"D2","C2"];[H2,"G2","F2"];[K2,"J2","I2"]</v>
-      </c>
-      <c r="AD2">
-        <f>'Plant Data'!AF3</f>
-        <v>20250613</v>
+        <f>'Other Links'!T3</f>
+        <v>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""];[T3,""https://Test.com"",""Test 3""]</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>'Plant Data'!AC3</f>
+        <v>20250611_AN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'Plant Data'!A4</f>
+        <v>Herbaceous, Perennial</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Plant Data'!B4</f>
+        <v>AT</v>
+      </c>
+      <c r="C3" t="str">
+        <f>'Plant Data'!C4</f>
+        <v>Amsonia tabernaemontana</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'Plant Data'!D4</f>
+        <v>BLUE STAR, BLUE DOGBANE</v>
+      </c>
+      <c r="E3" t="str">
+        <f>'Plant Data'!E4</f>
+        <v>3-Feb</v>
+      </c>
+      <c r="F3" t="str">
+        <f>'Plant Data'!F4</f>
+        <v>3-Feb</v>
+      </c>
+      <c r="G3" t="str">
+        <f>'Plant Data'!G4</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="H3" t="str">
+        <f>'Plant Data'!H4</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="I3" t="str">
+        <f>'Plant Data'!I4</f>
+        <v>Full Sun, Part Shade</v>
+      </c>
+      <c r="J3" t="str">
+        <f>'Plant Data'!J4</f>
+        <v>Medium</v>
+      </c>
+      <c r="K3" t="str">
+        <f>'Plant Data'!K4</f>
+        <v>FACW</v>
+      </c>
+      <c r="L3" t="str">
+        <f>'Plant Data'!L4</f>
+        <v>Zone 3 to 9</v>
+      </c>
+      <c r="M3" t="str">
+        <f>'Plant Data'!M4</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="N3" t="str">
+        <f>'Plant Data'!N4</f>
+        <v>Deer, Drought, Clay Soil</v>
+      </c>
+      <c r="O3" t="str">
+        <f>'Plant Data'!O4</f>
+        <v>Wet to moist, sandy soils.</v>
+      </c>
+      <c r="P3" t="str">
+        <f>'Plant Data'!P4</f>
+        <v>This species should be cut back after flowering. Blue star has naturalized northeast as far as Massachusetts. A similar species, A. illustris, occurs inland from MO &amp; KS to TX.</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>'Plant Data'!Q4</f>
+        <v>Low</v>
+      </c>
+      <c r="R3" t="str">
+        <f>'Plant Data'!R4</f>
+        <v>Wet, sandy sites in thin woods &amp; on plains.</v>
+      </c>
+      <c r="S3" t="str">
+        <f>'Plant Data'!S4</f>
+        <v>Easily grown in average, medium, well-drained soil in full sun to part shade. Prefers moist, loamy soils. Tolerates some drought. When grown in full sun, plants often require no pruning or staking. When grown in some shade and/or in rich soils, however, plants tend to become more open and floppy and often require staking or pruning. For a neater appearance, particularly for shade-grown plants, consider cutting back stems by 1/2 to 1/3 after flowering to promote bushy growth and, if desired, a more rounded foliage mound.</v>
+      </c>
+      <c r="T3" t="str">
+        <f>'Plant Data'!T4</f>
+        <v>Borders, rock gardens, cottage gardens, open woodland areas, rain gardens. Best when massed. Flowers can be used in fresh cut arrangements.</v>
+      </c>
+      <c r="U3" t="str">
+        <f>'Plant Data'!U4</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="V3" t="str">
+        <f>'Plant Data'!V4</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="W3" t="str">
+        <f>'Plant Data'!W4</f>
+        <v>No serious insect or disease problems. May require staking to avoid flopping in overly rich soils or shady conditions. Rust may occur. Deer tend to avoid this plant.</v>
+      </c>
+      <c r="X3" t="str">
+        <f>'Plant Data'!X4</f>
+        <v>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?taxonid=276088&amp;isprofile=1&amp;gen=Amsonia</v>
+      </c>
+      <c r="Y3" t="str">
+        <f>'Plant Data'!Y4</f>
+        <v>https://www.wildflower.org/plants/result.php?id_plant=amta2</v>
+      </c>
+      <c r="Z3" t="str">
+        <f>'Plant Data'!Z4</f>
+        <v>NA</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>'Plant Data'!AA4</f>
+        <v>https://newmoonnursery.com/nursery-plants/amsonia-tabernaemontana/</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>'Plant Data'!AB4</f>
+        <v>NA</v>
+      </c>
+      <c r="AC3" t="str">
+        <f>'Other Links'!T4</f>
+        <v>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""];[T3,""https://Test.com"",""Test 3""]</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>'Plant Data'!AC4</f>
+        <v>20250611_AN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'Plant Data'!A5</f>
+        <v>Herbaceous, Perennial</v>
+      </c>
+      <c r="B4" t="str">
+        <f>'Plant Data'!B5</f>
+        <v>ATM</v>
+      </c>
+      <c r="C4" t="str">
+        <f>'Plant Data'!C5</f>
+        <v>Amsonia tabernaemontana 'Montana'</v>
+      </c>
+      <c r="D4" t="str">
+        <f>'Plant Data'!D5</f>
+        <v>BLUE STAR</v>
+      </c>
+      <c r="E4" t="str">
+        <f>'Plant Data'!E5</f>
+        <v>1 - 1.5</v>
+      </c>
+      <c r="F4" t="str">
+        <f>'Plant Data'!F5</f>
+        <v>0.75 - 1</v>
+      </c>
+      <c r="G4" t="str">
+        <f>'Plant Data'!G5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="H4" t="str">
+        <f>'Plant Data'!H5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="I4" t="str">
+        <f>'Plant Data'!I5</f>
+        <v>Full Sun, Part Shade</v>
+      </c>
+      <c r="J4" t="str">
+        <f>'Plant Data'!J5</f>
+        <v>Medium</v>
+      </c>
+      <c r="K4" t="str">
+        <f>'Plant Data'!K5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="L4" t="str">
+        <f>'Plant Data'!L5</f>
+        <v>Zone 4 to 9</v>
+      </c>
+      <c r="M4" t="str">
+        <f>'Plant Data'!M5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="N4" t="str">
+        <f>'Plant Data'!N5</f>
+        <v>Deer, Drought, Clay Soil</v>
+      </c>
+      <c r="O4" t="str">
+        <f>'Plant Data'!O5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="P4" t="str">
+        <f>'Plant Data'!P5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>'Plant Data'!Q5</f>
+        <v>Low</v>
+      </c>
+      <c r="R4" t="str">
+        <f>'Plant Data'!R5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="S4" t="str">
+        <f>'Plant Data'!S5</f>
+        <v>Easily grown in average, medium, well-drained soil in full sun to part shade. Prefers moist, loamy soils. Tolerates some drought. When grown in full sun, plants often require no pruning or staking. When grown in some shade and/or in rich soils, however, plants tend to become more open and floppy and often require staking or pruning. For a neater appearance, particularly for shade-grown plants, consider cutting back stems by 1/2 to 1/3 after flowering to promote bushy growth and, if desired, a more rounded foliage mound. Although cutting back most Amsonias to 6-8" after bloom is recommended in order to help maintain neatness and increase foliage density, such trimming is usually not needed in the case of this compact cultivar.</v>
+      </c>
+      <c r="T4" t="str">
+        <f>'Plant Data'!T5</f>
+        <v>Borders, rock gardens, cottage gardens, open woodland areas, rain gardens. Best when massed. Flowers can be used in fresh cut arrangements.</v>
+      </c>
+      <c r="U4" t="str">
+        <f>'Plant Data'!U5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="V4" t="str">
+        <f>'Plant Data'!V5</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="W4" t="str">
+        <f>'Plant Data'!W5</f>
+        <v>No serious insect or disease problems. May require staking to avoid flopping in overly rich soils or shady conditions. Rust may occur. Deer tend to avoid this plant.</v>
+      </c>
+      <c r="X4" t="str">
+        <f>'Plant Data'!X5</f>
+        <v>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?taxonid=262985&amp;isprofile=0&amp;</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>'Plant Data'!Y5</f>
+        <v>NA</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>'Plant Data'!Z5</f>
+        <v>NA</v>
+      </c>
+      <c r="AA4" t="str">
+        <f>'Plant Data'!AA5</f>
+        <v>https://newmoonnursery.com/nursery-plants/amsonia-tabernaemontana-v-montana/</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>'Plant Data'!AB5</f>
+        <v>NA</v>
+      </c>
+      <c r="AC4" t="str">
+        <f>'Other Links'!T5</f>
+        <v>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""];[T3,""https://Test.com"",""Test 3""]</v>
+      </c>
+      <c r="AD4" t="str">
+        <f>'Plant Data'!AC5</f>
+        <v>20250611_AN</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'Plant Data'!A6</f>
+        <v>Herbaceous, Perennial</v>
+      </c>
+      <c r="B5" t="str">
+        <f>'Plant Data'!B6</f>
+        <v>ATS</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Plant Data'!C6</f>
+        <v>Amsonia tabernaemontana 'Salicifolia'</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'Plant Data'!D6</f>
+        <v>WILLOW LEAF BLUE STAR</v>
+      </c>
+      <c r="E5" t="str">
+        <f>'Plant Data'!E6</f>
+        <v>3-Feb</v>
+      </c>
+      <c r="F5" t="str">
+        <f>'Plant Data'!F6</f>
+        <v>3-Feb</v>
+      </c>
+      <c r="G5" t="str">
+        <f>'Plant Data'!G6</f>
+        <v>Blue</v>
+      </c>
+      <c r="H5" t="str">
+        <f>'Plant Data'!H6</f>
+        <v>May</v>
+      </c>
+      <c r="I5" t="str">
+        <f>'Plant Data'!I6</f>
+        <v>Full Sun, Part Shade</v>
+      </c>
+      <c r="J5" t="str">
+        <f>'Plant Data'!J6</f>
+        <v>Medium</v>
+      </c>
+      <c r="K5" t="str">
+        <f>'Plant Data'!K6</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="L5" t="str">
+        <f>'Plant Data'!L6</f>
+        <v>Zone 3 to 9</v>
+      </c>
+      <c r="M5" t="str">
+        <f>'Plant Data'!M6</f>
+        <v>Butterflies</v>
+      </c>
+      <c r="N5" t="str">
+        <f>'Plant Data'!N6</f>
+        <v>Deer, Drought, Clay Soil</v>
+      </c>
+      <c r="O5" t="str">
+        <f>'Plant Data'!O6</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="P5" t="str">
+        <f>'Plant Data'!P6</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>'Plant Data'!Q6</f>
+        <v>Low</v>
+      </c>
+      <c r="R5" t="str">
+        <f>'Plant Data'!R6</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="S5" t="str">
+        <f>'Plant Data'!S6</f>
+        <v>Easily grown in average, medium, well-drained soil in full sun to part shade. Prefers moist, loamy soils. Tolerates some drought. When grown in full sun, plants often require no pruning or staking though they tend to lean. When grown in some shade and/or in rich soils, however, plants tend to become more open and floppy and often require staking or pruning. For a neater appearance, particularly for shade-grown plants, consider cutting back stems by 1/2 to 1/3 after flowering to promote bushy growth and, if desired, a more rounded foliage mound.</v>
+      </c>
+      <c r="T5" t="str">
+        <f>'Plant Data'!T6</f>
+        <v>Borders, rock gardens, cottage gardens, open woodland areas, rain gardens. Best when massed. Flowers can be used in fresh cut arrangements.</v>
+      </c>
+      <c r="U5" t="str">
+        <f>'Plant Data'!U6</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="V5" t="str">
+        <f>'Plant Data'!V6</f>
+        <v>Needs Review</v>
+      </c>
+      <c r="W5" t="str">
+        <f>'Plant Data'!W6</f>
+        <v>No serious insect or disease problems. Taller plants may require staking, particularly if grown in shade and not pruned after flowering. Deer tend to avoid this plant.</v>
+      </c>
+      <c r="X5" t="str">
+        <f>'Plant Data'!X6</f>
+        <v>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?taxonid=276139&amp;isprofile=0&amp;hf=1</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>'Plant Data'!Y6</f>
+        <v>https://www.wildflower.org/plants/result.php?id_plant=AMTAS</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>'Plant Data'!Z6</f>
+        <v>https://www.pleasantrunnursery.com/plant-name/Amsonia-tabernaemontana-var--salicifolia</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>'Plant Data'!AA6</f>
+        <v>https://newmoonnursery.com/nursery-plants/amsonia-tabernaemontana-v-salicifolia/</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>'Plant Data'!AB6</f>
+        <v>NA</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>'Other Links'!T6</f>
+        <v>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""];[T3,""https://Test.com"",""Test 3""]</v>
+      </c>
+      <c r="AD5" t="str">
+        <f>'Plant Data'!AC6</f>
+        <v>20250611_AN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'Plant Data'!A7</f>
+        <v>Herbaceous, Perennial</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'Plant Data'!B7</f>
+        <v>AC</v>
+      </c>
+      <c r="C6" t="str">
+        <f>'Plant Data'!C7</f>
+        <v>Aquilegia canadensis</v>
+      </c>
+      <c r="D6" t="str">
+        <f>'Plant Data'!D7</f>
+        <v>RED COLUMBINE</v>
+      </c>
+      <c r="E6" t="str">
+        <f>'Plant Data'!E7</f>
+        <v>3-Feb</v>
+      </c>
+      <c r="F6" t="str">
+        <f>'Plant Data'!F7</f>
+        <v>1 - 1.5</v>
+      </c>
+      <c r="G6" t="str">
+        <f>'Plant Data'!G7</f>
+        <v>Red, Pink, Yellow</v>
+      </c>
+      <c r="H6" t="str">
+        <f>'Plant Data'!H7</f>
+        <v>Feb, Mar, Apr, May, Jun, Jul</v>
+      </c>
+      <c r="I6" t="str">
+        <f>'Plant Data'!I7</f>
+        <v>Full Sun, Part Shade</v>
+      </c>
+      <c r="J6" t="str">
+        <f>'Plant Data'!J7</f>
+        <v>Medium</v>
+      </c>
+      <c r="K6" t="str">
+        <f>'Plant Data'!K7</f>
+        <v>FACU</v>
+      </c>
+      <c r="L6" t="str">
+        <f>'Plant Data'!L7</f>
+        <v>Zone 3 to 8</v>
+      </c>
+      <c r="M6" t="str">
+        <f>'Plant Data'!M7</f>
+        <v>Hummingbirds</v>
+      </c>
+      <c r="N6" t="str">
+        <f>'Plant Data'!N7</f>
+        <v>Rabbit, Deer, Drought, Dry Soil</v>
+      </c>
+      <c r="O6" t="str">
+        <f>'Plant Data'!O7</f>
+        <v>Sandy, well-drained soils. Medium Loam, Sandy Loam, Sandy, Limestone-based. Not too rich.</v>
+      </c>
+      <c r="P6" t="str">
+        <f>'Plant Data'!P7</f>
+        <v>Red columbine likes moisture but must be in well drained soil. Rich garden soil encourages rank vegetative growth and weak stems and shortens the plant's lifespan, while plants in thin, sandy soils maintain a tight, compact habit and can live for many years. It is</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>'Plant Data'!Q7</f>
+        <v>Medium</v>
+      </c>
+      <c r="R6" t="str">
+        <f>'Plant Data'!R7</f>
+        <v>Partly shaded to shaded woodland habitat with calcareous soils that are not too rich. Central Texas populations primarily in solution-pitted limestone areas in shade.</v>
+      </c>
+      <c r="S6" t="str">
+        <f>'Plant Data'!S7</f>
+        <v>Easily grown in average, medium, well-drained soil in full sun to part shade. Wide range of soil tolerance as long as drainage is good. Prefers rich, moist soils in light to moderate shade. Freely self-seeds and will naturalize to form large colonies in optimum growing conditions. Remove flowering stems after bloom to encourage additional bloom. Keep soils uniformly moist after bloom to prolong attractive foliage appearance. When foliage depreciates, plants may be cut to the ground.</v>
+      </c>
+      <c r="T6" t="str">
+        <f>'Plant Data'!T7</f>
+        <v>Borders, cottage gardens, open shade gardens, woodland gardens or naturalized areas. Also a good selection for a hummingbird garden. Continue to water plants after bloom to enjoy the ground cover effect of the attractive foliage.</v>
+      </c>
+      <c r="U6" t="str">
+        <f>'Plant Data'!U7</f>
+        <v>Use Ornamental: Valued as a shade-loving, Use Wildlife: Blooms attract hummingbirds, bees, butterflies, and hawk moths. Seeds consumed by finches and buntings., Use Other: Native</v>
+      </c>
+      <c r="V6" t="str">
+        <f>'Plant Data'!V7</f>
+        <v>Maintenance: Be careful of overwatering in summer - the crowns can rot. Cut back old seed heads and stems in summer to keep tidy looking. To maintain pure strains of any Aquilegia species and prevent hybridizing (which A. canadensis will readily do), keep different species widely separated - not a surefire protection, but reduces the likelihood.</v>
+      </c>
+      <c r="W6" t="str">
+        <f>'Plant Data'!W7</f>
+        <v>This species has very good resistance to leaf miner which often causes severe damage to the foliage of many other columbine species and hybrids.</v>
+      </c>
+      <c r="X6" t="str">
+        <f>'Plant Data'!X7</f>
+        <v>https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderDetails.aspx?kempercode=b400</v>
+      </c>
+      <c r="Y6" t="str">
+        <f>'Plant Data'!Y7</f>
+        <v>https://www.wildflower.org/plants/result.php?id_plant=aqca</v>
+      </c>
+      <c r="Z6" t="str">
+        <f>'Plant Data'!Z7</f>
+        <v>https://www.pleasantrunnursery.com/plant-name/Aquilegia-canadensis</v>
+      </c>
+      <c r="AA6" t="str">
+        <f>'Plant Data'!AA7</f>
+        <v>https://newmoonnursery.com/nursery-plants/aquilegia-canadensis/</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>'Plant Data'!AB7</f>
+        <v>https://www.pinelandsnursery.com/aquilegia-canadensis-red-columbine-seed</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>'Other Links'!T7</f>
+        <v>[T1,""https://Test.com"",""Test 1""];[T2,""https://Test.com"",""Test 2""]</v>
+      </c>
+      <c r="AD6" t="str">
+        <f ca="1">'Plant Data'!AC7</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="12" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="60" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;A</oddHeader>
+    <oddFooter>&amp;A</oddFooter>
   </headerFooter>
 </worksheet>
 </file>